--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/ECsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AFCF7F-9DD6-AB45-83BF-C119F41D7715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F5D6D-4778-F74C-B601-726C1BD30717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="44800" windowHeight="22660" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/cart_Confirm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -745,6 +741,10 @@
   </si>
   <si>
     <t>address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/cart</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12127,15 +12127,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12150,7 +12150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="3289300"/>
+          <a:off x="6375400" y="3556000"/>
           <a:ext cx="749300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12187,16 +12187,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12211,7 +12211,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6375400" y="3848100"/>
+          <a:off x="6400800" y="4025900"/>
           <a:ext cx="1460500" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12922,6 +12922,70 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
             <a:t>個数</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>発送先</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -13851,6 +13915,640 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D39E0E-8001-EE4D-9BF2-7334C07F3DF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20993100" y="5156200"/>
+          <a:ext cx="3606800" cy="2082800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログインせずに買う</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCB4F98D-DE56-B54A-B738-C323ED0B082B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22974300" y="6604000"/>
+          <a:ext cx="1219200" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB4361D-581C-4CBB-9496-3A5A728DF6EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7112000" y="3149600"/>
+          <a:ext cx="4826000" cy="69850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DEB59C6-0852-8845-9179-1241CFC258E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362700" y="3035300"/>
+          <a:ext cx="749300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47A111FD-522E-B54A-8CFD-5659ABDC3E0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7150100" y="3759200"/>
+          <a:ext cx="4749800" cy="4699000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A4DB104-242B-E145-928A-E9EE3EA4B71A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="0"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8477250" y="2406650"/>
+          <a:ext cx="3556000" cy="3492500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6429"/>
+            <a:gd name="adj2" fmla="val 56545"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="カギ線コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574EC524-5AD5-C043-849A-2E31F88B8715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="0"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10099675" y="-3425825"/>
+          <a:ext cx="838200" cy="12439650"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -142424"/>
+            <a:gd name="adj2" fmla="val 94946"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="カギ線コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2942533A-2327-6142-918C-ACC75622C2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="3213100"/>
+          <a:ext cx="609600" cy="25400"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3962FD-75A6-9C4B-84DD-42BDAE8F2FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20345400" y="3213100"/>
+          <a:ext cx="647700" cy="2984500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="カギ線コネクタ 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E00700BD-E78D-B540-B96A-A89B508A442A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="22758400" y="4279900"/>
+          <a:ext cx="1841500" cy="1917700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -12414"/>
+            <a:gd name="adj2" fmla="val 77152"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17901,8 +18599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
   <dimension ref="I9:BD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="CB21" sqref="CB21"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="CP35" sqref="CP35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
@@ -17915,7 +18613,7 @@
         <v>57</v>
       </c>
       <c r="BD9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="40:40">
@@ -18142,7 +18840,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -18249,7 +18947,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -18296,7 +18994,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>5</v>
@@ -18311,7 +19009,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -18326,7 +19024,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>112</v>
@@ -18356,7 +19054,7 @@
     </row>
     <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>112</v>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/ECsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1F5D6D-4778-F74C-B601-726C1BD30717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378137CE-8943-8346-AB71-6DAF3B89A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="860" windowWidth="44800" windowHeight="22660" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/ECsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378137CE-8943-8346-AB71-6DAF3B89A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4587072-C794-401B-94F2-56668A408F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="44800" windowHeight="22660" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="121">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -747,12 +747,16 @@
     <t>/cart</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>/{id}/editConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11947,15 +11951,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>37465</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:rowOff>58420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11970,8 +11974,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11938000" y="2108200"/>
-          <a:ext cx="3606800" cy="2082800"/>
+          <a:off x="11924665" y="2115820"/>
+          <a:ext cx="3602990" cy="2082800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12254,15 +12258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>16510</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>245110</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12277,7 +12281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11899900" y="7658100"/>
+          <a:off x="11903710" y="9894570"/>
           <a:ext cx="3276600" cy="1600200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12343,77 +12347,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B42AA8-9D03-924C-A058-C0EFAEE11A71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13995400" y="3683000"/>
-          <a:ext cx="1219200" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カートに入れる</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>125095</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12428,8 +12371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16738600" y="2171700"/>
-          <a:ext cx="3606800" cy="2082800"/>
+          <a:off x="13231495" y="15621000"/>
+          <a:ext cx="3599180" cy="2075180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12542,16 +12485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>201295</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>125095</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12566,8 +12509,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18034000" y="2209800"/>
-          <a:ext cx="838200" cy="368300"/>
+          <a:off x="14526895" y="15659100"/>
+          <a:ext cx="838200" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12655,13 +12598,8 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>追加</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/store</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12670,15 +12608,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12693,74 +12631,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13766800" y="8737600"/>
-          <a:ext cx="1219200" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>更新</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>/update</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>62</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7741215C-B561-2146-A47F-2FADBFBE114D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19050000" y="3797300"/>
-          <a:ext cx="1219200" cy="368300"/>
+          <a:off x="13770610" y="10962640"/>
+          <a:ext cx="1219200" cy="379730"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12796,16 +12668,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7741215C-B561-2146-A47F-2FADBFBE114D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15535275" y="17238980"/>
+          <a:ext cx="1219200" cy="383540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12820,8 +12753,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20955000" y="2197100"/>
-          <a:ext cx="3606800" cy="2082800"/>
+          <a:off x="17440275" y="15638780"/>
+          <a:ext cx="3599180" cy="2098040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12998,16 +12931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>48895</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13022,8 +12955,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23063200" y="3784600"/>
-          <a:ext cx="1219200" cy="368300"/>
+          <a:off x="19556095" y="17241520"/>
+          <a:ext cx="1219200" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13059,16 +12992,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>81</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>198755</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>132080</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13083,8 +13016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24803100" y="2209800"/>
-          <a:ext cx="3606800" cy="2082800"/>
+          <a:off x="21288375" y="15659100"/>
+          <a:ext cx="3599180" cy="2075180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13126,15 +13059,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>249555</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>20320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>249555</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13149,7 +13082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12153900" y="3670300"/>
+          <a:off x="12136755" y="3677920"/>
           <a:ext cx="1219200" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13186,32 +13119,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2DF8AC-63ED-A949-B2CE-22F9C3D2C6C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12179300" y="6210300"/>
-          <a:ext cx="1219200" cy="368300"/>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B9F1B2-6F23-7B4D-BB91-6F23653AAE2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554075" y="17241520"/>
+          <a:ext cx="1219200" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13247,138 +13180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>215900</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8919DC7-D149-A147-B98F-AE32602CB61A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12103100" y="8763000"/>
-          <a:ext cx="1219200" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B9F1B2-6F23-7B4D-BB91-6F23653AAE2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17068800" y="3784600"/>
-          <a:ext cx="1219200" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13393,8 +13204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21501100" y="3784600"/>
-          <a:ext cx="1219200" cy="368300"/>
+          <a:off x="17993995" y="17241520"/>
+          <a:ext cx="1219200" cy="360680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13919,16 +13730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13943,8 +13754,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20993100" y="5156200"/>
-          <a:ext cx="3606800" cy="2082800"/>
+          <a:off x="16741140" y="20428585"/>
+          <a:ext cx="3602990" cy="2078990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14024,16 +13835,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>79</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>159385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14048,8 +13859,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="22974300" y="6604000"/>
-          <a:ext cx="1219200" cy="368300"/>
+          <a:off x="18722340" y="21876385"/>
+          <a:ext cx="1219200" cy="364490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14086,13 +13897,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>97790</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>184468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>37465</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -14112,8 +13923,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7112000" y="3149600"/>
-          <a:ext cx="4826000" cy="69850"/>
+          <a:off x="7108190" y="3156268"/>
+          <a:ext cx="4816475" cy="63182"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -14204,15 +14015,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>84455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>20320</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14224,13 +14035,15 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="6" idx="3"/>
           <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7150100" y="3759200"/>
-          <a:ext cx="4749800" cy="4699000"/>
+          <a:off x="7124700" y="3742055"/>
+          <a:ext cx="4782820" cy="6950710"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14319,16 +14132,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>250190</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>35559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>201294</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14340,19 +14153,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="29" idx="0"/>
+          <a:stCxn id="29" idx="1"/>
           <a:endCxn id="11" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10099675" y="-3425825"/>
-          <a:ext cx="838200" cy="12439650"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm rot="10800000" flipH="1" flipV="1">
+          <a:off x="3907790" y="2550159"/>
+          <a:ext cx="9325610" cy="14110335"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -142424"/>
-            <a:gd name="adj2" fmla="val 94946"/>
+            <a:gd name="adj1" fmla="val -2451"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -14378,16 +14190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14405,8 +14217,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20345400" y="3213100"/>
-          <a:ext cx="609600" cy="25400"/>
+          <a:off x="16830675" y="16670020"/>
+          <a:ext cx="609600" cy="17780"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14436,16 +14248,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>201295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14462,13 +14274,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20345400" y="3213100"/>
-          <a:ext cx="647700" cy="2984500"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm flipH="1">
+          <a:off x="16744950" y="16660495"/>
+          <a:ext cx="83820" cy="4807585"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj1" fmla="val -272727"/>
+            <a:gd name="adj2" fmla="val 50020"/>
+            <a:gd name="adj3" fmla="val 372727"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -14494,16 +14308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>37465</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>208280</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14521,13 +14335,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="22758400" y="4279900"/>
-          <a:ext cx="1841500" cy="1917700"/>
+          <a:off x="19239865" y="17733010"/>
+          <a:ext cx="1104265" cy="3735070"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -12414"/>
-            <a:gd name="adj2" fmla="val 77152"/>
+            <a:gd name="adj1" fmla="val -20702"/>
+            <a:gd name="adj2" fmla="val 63890"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -14549,6 +14363,2070 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>221615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBA14B8D-8E90-4567-886F-D12CCB26986D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4188460" y="4107815"/>
+          <a:ext cx="1219200" cy="375920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カートに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1B964A9-442E-4377-B004-69EC6C38A13F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16252825" y="9894570"/>
+          <a:ext cx="3276600" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>136525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CF8ED6-4E6A-4F5B-811A-79E9B7FCDD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18119725" y="10962640"/>
+          <a:ext cx="1219200" cy="379730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/update</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>284480</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3233813F-A85B-4076-B184-2FC20B21E1D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16438880" y="10999470"/>
+          <a:ext cx="1219200" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>94615</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01D0B9D-DE98-4C19-A1F8-B64D12E026BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14993620" y="10692765"/>
+          <a:ext cx="1255395" cy="457835"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>283845</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EA1C65-CB02-4E36-A08C-7450BB387E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10647045" y="10237470"/>
+          <a:ext cx="478155" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A070B2-BAF4-40F1-8832-76E8E00D0B4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10807065" y="5398770"/>
+          <a:ext cx="468630" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>134620</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>141605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>288290</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E0CB57-9ECA-4CA3-8CCC-2364FCA1534C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="2"/>
+          <a:endCxn id="8" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15223172" y="9665653"/>
+          <a:ext cx="151765" cy="3506470"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 260714"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>132716</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>21590</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BFBE024-CB9A-4667-A46D-79BBCA19EFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="2"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12536171" y="5262245"/>
+          <a:ext cx="111125" cy="12267565"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1480000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8413CC3A-437C-4208-9A19-865F93251F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15203805" y="11807190"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17625F07-6ADC-4563-846D-B2EE08ACE53F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16565880" y="13159740"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>132715</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66A9045D-29DF-43CB-BDB8-4E34F30D3563}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="3"/>
+          <a:endCxn id="131" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19335115" y="8439785"/>
+          <a:ext cx="4460240" cy="2710815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>27305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D70B8360-0C48-4D8E-88AF-86875144D3F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14478000" y="9094470"/>
+          <a:ext cx="2455545" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122555</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{410EE79D-9E98-4F81-BC70-29978BABD4CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16293465" y="5151755"/>
+          <a:ext cx="3276600" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品画像</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50032D68-752C-4E08-9893-9A67739CA2C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18007965" y="6246495"/>
+          <a:ext cx="1219200" cy="353060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/store</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>8255</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198755</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{375BC965-2BFA-4873-9082-A934A2FBA896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16467455" y="6246495"/>
+          <a:ext cx="1219200" cy="353060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>220345</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EB41EBB-37CE-4516-A26D-5866AFDFC29E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="75" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="14935200" y="5953760"/>
+          <a:ext cx="1354455" cy="438785"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>10160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7187B061-D99B-4A2F-B128-8E6EA66B9CAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="77" idx="2"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="15296515" y="4944745"/>
+          <a:ext cx="125730" cy="3439160"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 281818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>49530</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="正方形/長方形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3C0C44-CD92-4304-8BE8-D2D6FD50A03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15289530" y="7063740"/>
+          <a:ext cx="622935" cy="337820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41F2E31-ACFB-40B4-8444-A459E0714401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13617258" y="3366453"/>
+          <a:ext cx="1761490" cy="8231505"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97B50A82-CF06-4041-B252-E41EA7CBE4B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15278100" y="8439150"/>
+          <a:ext cx="636270" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>97790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>249555</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E6282E-23F9-469B-9788-294E996E035F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="0"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="15770543" y="2996247"/>
+          <a:ext cx="26670" cy="4288155"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 957143"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>293370</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="正方形/長方形 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E56367EF-53AF-43C0-8CAD-FE060B990AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14297025" y="4453890"/>
+          <a:ext cx="2455545" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>56515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>215265</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>69215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="100" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A791BB-D478-4AB1-83C5-B89735BD2064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="35" idx="0"/>
+          <a:endCxn id="8" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="15716568" y="7721917"/>
+          <a:ext cx="12700" cy="4341495"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5754545"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>173355</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>17780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AC54E6C-B831-4900-9C20-0B3883A8029E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15413355" y="10197465"/>
+          <a:ext cx="626745" cy="335915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>186690</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7921CB-7487-48F0-8AF5-7414D3BD5B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15426690" y="5457825"/>
+          <a:ext cx="615315" cy="334010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23178</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>20955</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>210185</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="カギ線コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F541F614-EEC0-4ECC-97EF-CF637EC7DC84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+          <a:endCxn id="131" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19223355" y="6423978"/>
+          <a:ext cx="4572000" cy="2015807"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>201929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAD8DA2E-85AA-4E16-A5DA-2765EF026F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21659850" y="6374129"/>
+          <a:ext cx="2457450" cy="798195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hidden</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が改ざんされた時用）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>196215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>154305</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58FFEC68-8C12-4EF1-80C7-EEFAD8009971}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10955655" y="2710815"/>
+          <a:ext cx="476250" cy="337820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>17145</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>245745</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2059CD04-022A-4406-8366-2E1F1AF7BA4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23791545" y="7635875"/>
+          <a:ext cx="3276600" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラー検出画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>203834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>87629</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="正方形/長方形 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{744C364F-2215-402F-AD6A-3632274FDEB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21656040" y="6376034"/>
+          <a:ext cx="2880360" cy="798195"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hidden</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が改ざんされた時用）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{394817B9-EE37-47AB-9F91-72C80F6E5358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21783675" y="10094595"/>
+          <a:ext cx="2876550" cy="803910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hidden</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が改ざんされた時用）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -17885,14 +19763,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -17900,7 +19778,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -17908,10 +19786,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -17919,10 +19797,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -17930,10 +19808,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -17941,10 +19819,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -17952,10 +19830,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -17963,10 +19841,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -17974,10 +19852,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -17985,7 +19863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
@@ -17993,12 +19871,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -18006,7 +19884,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>65</v>
       </c>
@@ -18033,14 +19911,14 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>68</v>
       </c>
@@ -18051,7 +19929,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="3:6">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>70</v>
       </c>
@@ -18059,7 +19937,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>71</v>
       </c>
@@ -18067,7 +19945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="3:6">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>72</v>
       </c>
@@ -18081,7 +19959,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="3:6">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -18089,7 +19967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="3:6">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -18097,7 +19975,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>93</v>
       </c>
@@ -18105,17 +19983,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:6">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:6">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:6">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>94</v>
       </c>
@@ -18123,17 +20001,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:6">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="3:6">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>98</v>
       </c>
@@ -18141,7 +20019,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -18152,17 +20030,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="3:6">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>70</v>
       </c>
@@ -18170,17 +20048,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:6">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="3:6">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="3:6">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
         <v>71</v>
       </c>
@@ -18188,17 +20066,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:6">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
         <v>75</v>
       </c>
@@ -18209,7 +20087,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="3:6">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -18217,7 +20095,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="3:6">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -18225,7 +20103,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="3:6">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -18236,7 +20114,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="3:6">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>70</v>
       </c>
@@ -18244,7 +20122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="3:5">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>71</v>
       </c>
@@ -18252,7 +20130,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="3:5">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -18263,7 +20141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="3:5">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>70</v>
       </c>
@@ -18271,7 +20149,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="3:5">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>71</v>
       </c>
@@ -18279,7 +20157,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="3:5">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
         <v>77</v>
       </c>
@@ -18287,12 +20165,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:5">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="3:5">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
         <v>80</v>
       </c>
@@ -18300,12 +20178,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="3:5">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="3:5">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
         <v>81</v>
       </c>
@@ -18313,7 +20191,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="3:5">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C46" t="s">
         <v>82</v>
       </c>
@@ -18321,12 +20199,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:5">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="3:5">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
         <v>64</v>
       </c>
@@ -18334,17 +20212,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="3:12">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="3:12">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="3:12">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D51" t="s">
         <v>85</v>
       </c>
@@ -18373,7 +20251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:12">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
         <v>86</v>
       </c>
@@ -18402,7 +20280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="3:12">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
         <v>87</v>
       </c>
@@ -18431,7 +20309,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="3:12">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
         <v>70</v>
       </c>
@@ -18439,27 +20317,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="3:12">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="3:12">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="3:12">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="3:12">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
         <v>89</v>
       </c>
@@ -18478,13 +20356,13 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
@@ -18492,7 +20370,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -18500,7 +20378,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -18508,7 +20386,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
@@ -18516,7 +20394,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -18524,7 +20402,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
@@ -18547,9 +20425,9 @@
       <selection activeCell="BU49" sqref="BU49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="34:95">
+    <row r="2" spans="34:95" x14ac:dyDescent="0.45">
       <c r="AH2" t="s">
         <v>54</v>
       </c>
@@ -18557,32 +20435,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="34:95">
+    <row r="9" spans="34:95" x14ac:dyDescent="0.45">
       <c r="CQ9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="4:116">
+    <row r="35" spans="4:116" x14ac:dyDescent="0.45">
       <c r="AJ35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="4:116">
+    <row r="44" spans="4:116" x14ac:dyDescent="0.45">
       <c r="DL44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="4:116">
+    <row r="48" spans="4:116" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="80:80">
+    <row r="50" spans="80:80" x14ac:dyDescent="0.45">
       <c r="CB50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="80:80">
+    <row r="74" spans="80:80" x14ac:dyDescent="0.45">
       <c r="CB74" t="s">
         <v>60</v>
       </c>
@@ -18597,33 +20475,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
-  <dimension ref="I9:BD33"/>
+  <dimension ref="I9:BB68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="CP35" sqref="CP35"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="AO33" sqref="AO33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="9:56">
+    <row r="9" spans="9:40" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
         <v>56</v>
       </c>
       <c r="AN9" t="s">
         <v>57</v>
       </c>
-      <c r="BD9" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="22" spans="40:40">
+    <row r="22" spans="40:40" x14ac:dyDescent="0.45">
       <c r="AN22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="40:40">
-      <c r="AN33" t="s">
+    <row r="43" spans="40:54" x14ac:dyDescent="0.45">
+      <c r="AN43" t="s">
         <v>59</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="44:44" x14ac:dyDescent="0.45">
+      <c r="AR68" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -18641,13 +20524,13 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>52</v>
       </c>
@@ -18655,37 +20538,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -18693,27 +20576,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -18733,23 +20616,23 @@
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -18772,7 +20655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -18791,7 +20674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -18806,7 +20689,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -18823,7 +20706,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -18838,7 +20721,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
@@ -18853,12 +20736,12 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -18881,7 +20764,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -18900,7 +20783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -18915,7 +20798,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B20" s="1" t="s">
         <v>110</v>
       </c>
@@ -18930,7 +20813,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B21" s="1" t="s">
         <v>111</v>
       </c>
@@ -18945,12 +20828,12 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
@@ -18973,7 +20856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -18992,7 +20875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
@@ -19007,7 +20890,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
@@ -19022,7 +20905,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
@@ -19037,7 +20920,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
@@ -19052,7 +20935,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
@@ -19067,7 +20950,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -19091,7 +20974,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19108,7 +20991,7 @@
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neko/ECsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4587072-C794-401B-94F2-56668A408F93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD0D34-05F5-4C42-96E7-12A215CF9372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="126">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -751,12 +751,32 @@
     <t>/{id}/editConfirm</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>/cart/regConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/cart/regComplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/cart/buyer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/cart/buyerConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/cart/buyerComplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12720,25 +12740,25 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確認</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+            <a:t>購入する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>8255</xdr:colOff>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>33655</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12753,7 +12773,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17440275" y="15638780"/>
+          <a:off x="22037675" y="15613380"/>
           <a:ext cx="3599180" cy="2098040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12781,125 +12801,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>商品名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>個数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>商品名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>個数</a:t>
+            <a:t>購入者情報は以下でよろしいですか？</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>商品名</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>個数</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>発送先</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -12931,77 +12835,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>48895</xdr:colOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>48895</xdr:colOff>
+      <xdr:rowOff>71120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>74295</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB96B55-AE64-D645-A19C-E4D2854718FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24153495" y="17216120"/>
+          <a:ext cx="1219200" cy="360680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確定する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>97155</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EB96B55-AE64-D645-A19C-E4D2854718FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="19556095" y="17241520"/>
-          <a:ext cx="1219200" cy="360680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>購入する</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>69</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>198755</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>132080</xdr:rowOff>
+      <xdr:rowOff>43180</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13016,7 +12920,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21288375" y="15659100"/>
+          <a:off x="26673175" y="15570200"/>
           <a:ext cx="3599180" cy="2075180"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13180,67 +13084,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>10795</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{738EAE97-A9E1-C140-ADBA-FB107C926D2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17993995" y="17241520"/>
-          <a:ext cx="1219200" cy="360680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -13730,16 +13573,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>83185</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>227330</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>303530</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>117475</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13754,7 +13597,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16741140" y="20428585"/>
+          <a:off x="17731740" y="15640685"/>
           <a:ext cx="3602990" cy="2078990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13792,38 +13635,6 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインせずに買う</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>名前</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>住所</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>.</a:t>
@@ -13835,16 +13646,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>159385</xdr:rowOff>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>66040</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13859,8 +13670,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18722340" y="21876385"/>
-          <a:ext cx="1219200" cy="364490"/>
+          <a:off x="19268440" y="17101185"/>
+          <a:ext cx="797560" cy="364490"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13887,7 +13698,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>確認</a:t>
+            <a:t>登録</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14190,16 +14001,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>210820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>62865</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14211,14 +14022,72 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="16" idx="1"/>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="16" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16830675" y="16670020"/>
-          <a:ext cx="609600" cy="17780"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="19178270" y="12579985"/>
+          <a:ext cx="1625600" cy="7692390"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 172657"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="カギ線コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3962FD-75A6-9C4B-84DD-42BDAE8F2FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16754475" y="16680180"/>
+          <a:ext cx="977265" cy="750570"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -14248,76 +14117,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>72</xdr:row>
-      <xdr:rowOff>201295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>208280</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="カギ線コネクタ 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD3962FD-75A6-9C4B-84DD-42BDAE8F2FCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="10" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="16744950" y="16660495"/>
-          <a:ext cx="83820" cy="4807585"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -272727"/>
-            <a:gd name="adj2" fmla="val 50020"/>
-            <a:gd name="adj3" fmla="val 372727"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>37465</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>130810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>227330</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>208280</xdr:rowOff>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>138430</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14329,19 +14138,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="10" idx="3"/>
-          <a:endCxn id="16" idx="2"/>
+          <a:stCxn id="21" idx="3"/>
+          <a:endCxn id="16" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="19239865" y="17733010"/>
-          <a:ext cx="1104265" cy="3735070"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
+        <a:xfrm flipV="1">
+          <a:off x="21145500" y="16662400"/>
+          <a:ext cx="892175" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -20702"/>
-            <a:gd name="adj2" fmla="val 63890"/>
+            <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -14943,78 +14751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>268605</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>148590</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>31115</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="正方形/長方形 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8413CC3A-437C-4208-9A19-865F93251F91}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15203805" y="11807190"/>
-          <a:ext cx="626745" cy="339725"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12065</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>55880</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15029,7 +14775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16565880" y="13159740"/>
+          <a:off x="20782280" y="18087340"/>
           <a:ext cx="626745" cy="339725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15125,16 +14871,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>169545</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:rowOff>77470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>156845</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15149,7 +14895,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14478000" y="9094470"/>
+          <a:off x="12941300" y="8992870"/>
           <a:ext cx="2455545" cy="305435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15523,68 +15269,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>49530</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="正方形/長方形 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3C0C44-CD92-4304-8BE8-D2D6FD50A03E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15289530" y="7063740"/>
-          <a:ext cx="622935" cy="337820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>POST</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -15705,13 +15389,13 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>97790</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>249555</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>124460</xdr:rowOff>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15723,18 +15407,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="75" idx="0"/>
+          <a:stCxn id="13" idx="0"/>
           <a:endCxn id="5" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="15770543" y="2996247"/>
-          <a:ext cx="26670" cy="4288155"/>
+          <a:off x="13442950" y="5327650"/>
+          <a:ext cx="1079500" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 957143"/>
+            <a:gd name="adj1" fmla="val 121176"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -15760,16 +15444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>250825</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>293370</xdr:colOff>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>267970</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:rowOff>225425</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15784,7 +15468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14297025" y="4453890"/>
+          <a:off x="13357225" y="4491990"/>
           <a:ext cx="2455545" cy="305435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15826,15 +15510,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
+      <xdr:colOff>130810</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>56515</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>215265</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>69215</xdr:rowOff>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>54610</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -15846,18 +15530,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="35" idx="0"/>
+          <a:stCxn id="14" idx="0"/>
           <a:endCxn id="8" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="15716568" y="7721917"/>
-          <a:ext cx="12700" cy="4341495"/>
+          <a:off x="13427075" y="10009505"/>
+          <a:ext cx="1068070" cy="838200"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 5754545"/>
+            <a:gd name="adj1" fmla="val 133294"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -16424,6 +16108,1820 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>が改ざんされた時用）</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10C719DB-D83D-8748-87C2-00F2080F1E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20347940" y="17101185"/>
+          <a:ext cx="797560" cy="364490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>193040</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>146685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0633C2-80C7-9241-BAA0-67DA07625BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17871440" y="17063085"/>
+          <a:ext cx="1216660" cy="364490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録無し購入</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>155575</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="カギ線コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17E4A31-05AB-5445-BB83-AF4AFAD8DA79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25349200" y="16607790"/>
+          <a:ext cx="1323975" cy="715010"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>160019</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>92074</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF88EA43-32E1-EF4E-8722-352B3ACA5895}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="32" idx="2"/>
+          <a:endCxn id="16" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="20450809" y="15878810"/>
+          <a:ext cx="803275" cy="2370455"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66403"/>
+            <a:gd name="adj2" fmla="val 80913"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC5CC9C-3B2B-8C43-BBE1-DBA0EA297F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17729200" y="20015200"/>
+          <a:ext cx="3599180" cy="2098040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入者情報を入力してください</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>郵便番号</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4928EF28-DF66-D549-9981-D13CDCB7F313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22021800" y="20015200"/>
+          <a:ext cx="3599180" cy="2098040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入者情報は以下でよろしいですか？</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4BD4F2E-2CE4-904E-B155-CB9A90FD0E99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24361140" y="21508085"/>
+          <a:ext cx="797560" cy="364490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>231140</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>32385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>168275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D33B7F53-ADFA-5A45-9CAC-78EDAEA61159}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22481540" y="21520785"/>
+          <a:ext cx="797560" cy="364490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>294640</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCED013-BA52-964B-B4A3-8D37C86A2F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20106640" y="21571585"/>
+          <a:ext cx="797560" cy="364490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>確認する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>50801</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>53974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>191771</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>33019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="カギ線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01F3C177-5C74-B64D-B46C-E418266CB7B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="2"/>
+          <a:endCxn id="66" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="16286163" y="18870612"/>
+          <a:ext cx="3636645" cy="750570"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 35577"/>
+            <a:gd name="adj2" fmla="val 130457"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>33020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>36830</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="カギ線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83B71108-809F-5847-93E0-1F84019F3D8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="71" idx="3"/>
+          <a:endCxn id="67" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="20904200" y="21064220"/>
+          <a:ext cx="1117600" cy="689610"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>21591</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>168274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>20321</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>167639</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="カギ線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D0F8EAF-C9F1-B345-985F-2A6815B08955}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="66" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="21090573" y="20323492"/>
+          <a:ext cx="227965" cy="3351530"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 200279"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>236855</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>170180</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="正方形/長方形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ED436B-387F-314C-8B1D-3225CF730333}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26812875" y="20040600"/>
+          <a:ext cx="3599180" cy="2075180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>購入しました。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>201930</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="カギ線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52316A5-C4BA-3742-A385-8655C4AD803A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="3"/>
+          <a:endCxn id="90" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25158700" y="21078190"/>
+          <a:ext cx="1654175" cy="612140"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB556601-FCA7-E246-B4F6-07C21D67A468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17348200" y="18097500"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>67945</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="正方形/長方形 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FC6B483-158C-4746-9628-65EFEB9C7020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19575145" y="13882370"/>
+          <a:ext cx="478155" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="正方形/長方形 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB1DE7A6-FA53-7843-99AC-9AD8C7D3D2FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18872200" y="19278600"/>
+          <a:ext cx="2455545" cy="305435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>21590</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="カギ線コネクタ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACA1576-1C0A-D841-88EA-F2ADAC708B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="19263995" y="20279995"/>
+          <a:ext cx="1536700" cy="1007110"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 114876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>71121</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>292101</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>19685</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="カギ線コネクタ 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C435BB51-5AFA-AF4A-A292-79D6FDDD1D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="68" idx="0"/>
+          <a:endCxn id="169" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="26492518" y="16923703"/>
+          <a:ext cx="2851785" cy="6316980"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE7520B-28F8-4240-808F-F5DCD0192D10}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26847800" y="18288000"/>
+          <a:ext cx="2876550" cy="803910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（フォームリクエストエラー。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>post</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信した</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>hidden</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が改ざんされた時用）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01EEEA2-3198-654F-9383-B877B97B5F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31076900" y="17856200"/>
+          <a:ext cx="3276600" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>エラー検出画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>74294</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>292099</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="171" name="カギ線コネクタ 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4412FFC9-CA51-3141-BD17-312356419090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="169" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="27380247" y="14959647"/>
+          <a:ext cx="1079500" cy="6313805"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>5080</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>202565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="正方形/長方形 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A18CA7C-EF49-C046-BD2C-F4144B9F4F68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25913080" y="20665440"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>147955</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F88F8B41-40AA-084E-A53E-1AC38380FDED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21005800" y="22567900"/>
+          <a:ext cx="478155" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>139065</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>302895</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="正方形/長方形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B247E0-0E40-EB43-86C8-3AF028EEFEDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15379065" y="7087870"/>
+          <a:ext cx="468630" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>151765</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>10795</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="正方形/長方形 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869A96EE-BFE1-5849-8FFF-2AACAF46DA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15086965" y="11913870"/>
+          <a:ext cx="468630" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>218440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>263525</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="正方形/長方形 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334356F1-9524-BD4A-9468-7B61116A6C60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25849580" y="16220440"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>17780</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>34925</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="179" name="正方形/長方形 178">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76C35C0C-09A8-3D48-8957-9E9DEA2F0F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21353780" y="20640040"/>
+          <a:ext cx="626745" cy="339725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POST</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>296545</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>13970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7286C926-0D36-7E4A-8E79-BCCC358A54FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17060545" y="16244570"/>
+          <a:ext cx="478155" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19763,14 +21261,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -19778,7 +21276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
@@ -19786,10 +21284,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -19797,10 +21295,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
@@ -19808,10 +21306,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
@@ -19819,10 +21317,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
@@ -19830,10 +21328,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>45</v>
       </c>
@@ -19841,10 +21339,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>46</v>
       </c>
@@ -19852,10 +21350,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>47</v>
       </c>
@@ -19863,7 +21361,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>62</v>
       </c>
@@ -19871,12 +21369,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="C27" t="s">
         <v>64</v>
       </c>
@@ -19884,7 +21382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>65</v>
       </c>
@@ -19911,14 +21409,14 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:6">
       <c r="C6" t="s">
         <v>68</v>
       </c>
@@ -19929,7 +21427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:6">
       <c r="D7" t="s">
         <v>70</v>
       </c>
@@ -19937,7 +21435,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:6">
       <c r="D8" t="s">
         <v>71</v>
       </c>
@@ -19945,7 +21443,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:6">
       <c r="C9" t="s">
         <v>72</v>
       </c>
@@ -19959,7 +21457,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:6">
       <c r="E10" t="s">
         <v>70</v>
       </c>
@@ -19967,7 +21465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:6">
       <c r="E11" t="s">
         <v>71</v>
       </c>
@@ -19975,7 +21473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:6">
       <c r="D12" t="s">
         <v>93</v>
       </c>
@@ -19983,17 +21481,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:6">
       <c r="E13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:6">
       <c r="E14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:6">
       <c r="D15" t="s">
         <v>94</v>
       </c>
@@ -20001,17 +21499,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:6">
       <c r="E16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:6">
       <c r="E17" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6">
       <c r="E18" t="s">
         <v>98</v>
       </c>
@@ -20019,7 +21517,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -20030,17 +21528,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:6">
       <c r="E20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:6">
       <c r="E21" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:6">
       <c r="D22" t="s">
         <v>70</v>
       </c>
@@ -20048,17 +21546,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6">
       <c r="E23" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:6">
       <c r="E24" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:6">
       <c r="D25" t="s">
         <v>71</v>
       </c>
@@ -20066,17 +21564,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:6">
       <c r="E26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:6">
       <c r="E27" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>75</v>
       </c>
@@ -20087,7 +21585,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:6">
       <c r="D29" t="s">
         <v>70</v>
       </c>
@@ -20095,7 +21593,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:6">
       <c r="D30" t="s">
         <v>71</v>
       </c>
@@ -20103,7 +21601,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>76</v>
       </c>
@@ -20114,7 +21612,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>70</v>
       </c>
@@ -20122,7 +21620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:5">
       <c r="D33" t="s">
         <v>71</v>
       </c>
@@ -20130,7 +21628,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -20141,7 +21639,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:5">
       <c r="D35" t="s">
         <v>70</v>
       </c>
@@ -20149,7 +21647,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:5">
       <c r="D36" t="s">
         <v>71</v>
       </c>
@@ -20157,7 +21655,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>77</v>
       </c>
@@ -20165,12 +21663,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:5">
       <c r="D38" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>80</v>
       </c>
@@ -20178,12 +21676,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>81</v>
       </c>
@@ -20191,7 +21689,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:5">
       <c r="C46" t="s">
         <v>82</v>
       </c>
@@ -20199,12 +21697,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:5">
       <c r="D47" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:5">
       <c r="C48" t="s">
         <v>64</v>
       </c>
@@ -20212,17 +21710,17 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:12">
       <c r="D49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:12">
       <c r="C50" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:12">
       <c r="D51" t="s">
         <v>85</v>
       </c>
@@ -20251,7 +21749,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:12">
       <c r="D52" t="s">
         <v>86</v>
       </c>
@@ -20280,7 +21778,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:12">
       <c r="D53" t="s">
         <v>87</v>
       </c>
@@ -20309,7 +21807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:12">
       <c r="D54" t="s">
         <v>70</v>
       </c>
@@ -20317,27 +21815,27 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:12">
       <c r="E55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:12">
       <c r="E56" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:12">
       <c r="E57" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:12">
       <c r="E58" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:12">
       <c r="D60" t="s">
         <v>89</v>
       </c>
@@ -20356,13 +21854,13 @@
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
         <v>32</v>
       </c>
@@ -20370,7 +21868,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
@@ -20378,7 +21876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -20386,7 +21884,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
@@ -20394,7 +21892,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
         <v>34</v>
       </c>
@@ -20402,7 +21900,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
@@ -20425,9 +21923,9 @@
       <selection activeCell="BU49" sqref="BU49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="2" spans="34:95" x14ac:dyDescent="0.45">
+    <row r="2" spans="34:95">
       <c r="AH2" t="s">
         <v>54</v>
       </c>
@@ -20435,32 +21933,32 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="34:95" x14ac:dyDescent="0.45">
+    <row r="9" spans="34:95">
       <c r="CQ9" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="4:116" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:116">
       <c r="AJ35" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="4:116" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:116">
       <c r="DL44" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="4:116" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:116">
       <c r="D48" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="80:80" x14ac:dyDescent="0.45">
+    <row r="50" spans="80:80">
       <c r="CB50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="74" spans="80:80" x14ac:dyDescent="0.45">
+    <row r="74" spans="80:80">
       <c r="CB74" t="s">
         <v>60</v>
       </c>
@@ -20475,15 +21973,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
-  <dimension ref="I9:BB68"/>
+  <dimension ref="I9:CK87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="AO33" sqref="AO33"/>
+    <sheetView tabSelected="1" topLeftCell="AW69" workbookViewId="0">
+      <selection activeCell="CH88" sqref="CH88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
   <sheetData>
-    <row r="9" spans="9:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="9:40">
       <c r="I9" t="s">
         <v>56</v>
       </c>
@@ -20491,12 +21989,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="40:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="40:40">
       <c r="AN22" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="40:54" x14ac:dyDescent="0.45">
+    <row r="43" spans="40:54">
       <c r="AN43" t="s">
         <v>59</v>
       </c>
@@ -20504,9 +22002,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="68" spans="44:44" x14ac:dyDescent="0.45">
+    <row r="68" spans="44:89">
       <c r="AR68" t="s">
         <v>119</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU68" t="s">
+        <v>121</v>
+      </c>
+      <c r="CK68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="59:89">
+      <c r="BG87" t="s">
+        <v>123</v>
+      </c>
+      <c r="BU87" t="s">
+        <v>124</v>
+      </c>
+      <c r="CK87" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -20524,13 +22042,13 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
         <v>52</v>
       </c>
@@ -20538,37 +22056,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:5">
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:5">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:5">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:5">
       <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:5">
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:5">
       <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:5">
       <c r="C13" t="s">
         <v>53</v>
       </c>
@@ -20576,27 +22094,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:5">
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:5">
       <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:5">
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5">
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5">
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -20616,23 +22134,23 @@
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -20655,7 +22173,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -20674,7 +22192,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="B8" s="1" t="s">
         <v>50</v>
       </c>
@@ -20689,7 +22207,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="B9" s="1" t="s">
         <v>49</v>
       </c>
@@ -20706,7 +22224,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
         <v>51</v>
       </c>
@@ -20721,7 +22239,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
         <v>118</v>
       </c>
@@ -20736,12 +22254,12 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8">
       <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
@@ -20764,7 +22282,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
@@ -20783,7 +22301,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="B19" s="1" t="s">
         <v>50</v>
       </c>
@@ -20798,7 +22316,7 @@
       </c>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>110</v>
       </c>
@@ -20813,7 +22331,7 @@
       </c>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
         <v>111</v>
       </c>
@@ -20828,12 +22346,12 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8">
       <c r="B29" s="2" t="s">
         <v>0</v>
       </c>
@@ -20856,7 +22374,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
@@ -20875,7 +22393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
@@ -20890,7 +22408,7 @@
       </c>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
         <v>114</v>
       </c>
@@ -20905,7 +22423,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:8">
       <c r="B33" s="1" t="s">
         <v>115</v>
       </c>
@@ -20920,7 +22438,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:8">
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
@@ -20935,7 +22453,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:8">
       <c r="B35" s="1" t="s">
         <v>116</v>
       </c>
@@ -20950,7 +22468,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:8">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -20974,7 +22492,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20991,7 +22509,7 @@
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/neko/ECsite/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEB2CA7-42CD-AC40-AED7-D2D6E6B0C820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E47C4B-6CA5-4F7A-892A-859C69A8E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37755" yWindow="8460" windowWidth="19650" windowHeight="9450" tabRatio="712" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId2"/>
     <sheet name="バージョン情報" sheetId="9" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="13" r:id="rId4"/>
+    <sheet name="画面" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId5"/>
-    <sheet name="機能一覧" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="DB設計" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId6"/>
+    <sheet name="機能一覧" sheetId="5" state="hidden" r:id="rId7"/>
     <sheet name="ER図" sheetId="7" r:id="rId8"/>
-    <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId9"/>
+    <sheet name="DB設計" sheetId="8" r:id="rId9"/>
+    <sheet name="追加機能" sheetId="15" r:id="rId10"/>
+    <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="174">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -221,14 +223,6 @@
   </si>
   <si>
     <t xml:space="preserve">Laravel Framework </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9.9.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>8.1.4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -720,15 +714,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>purchaseHistroiesテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>address</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -820,6 +806,283 @@
   </si>
   <si>
     <t>UpdateAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>createConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>showAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>editAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>destroyAction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkFileExists</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>postal_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>address_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>phone_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価は変更する可能性がある為</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文履歴機能</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・購入した日付毎に注文した商品を閲覧できること</t>
+    <rPh sb="1" eb="3">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしているユーザの購入履歴のみ閲覧できること</t>
+    <rPh sb="13" eb="17">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・管理者ユーザは、ユーザ全ての購入履歴を閲覧できること。</t>
+    <rPh sb="1" eb="4">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・購入履歴には、購入日、商品名、単価、合計代金、注文者情報（名前、メールアドレス、住所）</t>
+    <rPh sb="1" eb="5">
+      <t>コウニュウリレキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>コウニュウビ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ダイキン</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>チュウモンシャ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文者情報修正機能</t>
+    <rPh sb="0" eb="3">
+      <t>チュウモンシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインしている場合注文者情報はログインユーザになるが、名前や住所を修正できること</t>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>チュウモンシャ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ジュウショ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>removeCartItemsById</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>register</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>regComplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyerConfirm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buyerComplete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>allDelete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>quantityUpdate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateQuantityById</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -827,7 +1090,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,7 +1116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +1132,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +1174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +1196,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -7058,6 +7336,557 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60359E9C-B385-7522-54EC-4EE6B5FAD9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="2286000"/>
+          <a:ext cx="1428750" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C685100-048F-425C-90C1-B5B6A12DC767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2286000"/>
+          <a:ext cx="1428750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78231F54-C6DE-4A67-B47B-744D190A7E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2743200"/>
+          <a:ext cx="1428750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単価</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E331C0-B99F-4330-B7E5-5529650E73E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3429000"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554FAA8A-3BFA-480B-B968-2228426435B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="3429000"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E951E-8BBE-4866-A324-F9A5A0848101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="3886200"/>
+          <a:ext cx="1143000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3838DAC7-0380-4E1F-B8AA-536A79A81E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="3886200"/>
+          <a:ext cx="1143000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B118B59E-AEBB-4701-BC40-FD59E5414BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="2057400"/>
+          <a:ext cx="3714750" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65272E9-F09D-44CC-ABE1-DB6C636B8AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="2066925"/>
+          <a:ext cx="1428750" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8744,7 +9573,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10388,133 +11217,133 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="5"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="5"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="5"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B20" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" t="s">
+      <c r="E27" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="C28" t="s">
+      <c r="E28" t="s">
         <v>62</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -10528,6 +11357,75 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB3341A-341D-4B51-B88C-4BE59AC260A0}">
+  <dimension ref="B5:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD3D09-1400-45E4-9C4F-6622B2B3E86B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1578E11-328D-48E4-B19F-70BAD949E680}">
   <dimension ref="C6:L60"/>
@@ -10536,320 +11434,320 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>65</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="D7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6">
-      <c r="C9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
         <v>89</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E17" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6">
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="E11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6">
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6">
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6">
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6">
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6">
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="E17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6">
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>19</v>
       </c>
       <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="3:6">
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6">
-      <c r="E21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="D22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" t="s">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="3:6">
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6">
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6">
-      <c r="D25" t="s">
-        <v>68</v>
-      </c>
       <c r="E25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="E27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="3:6">
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6">
-      <c r="E27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="3:6">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6">
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="3:6">
-      <c r="D30" t="s">
-        <v>68</v>
-      </c>
       <c r="E30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="E31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="3:6">
-      <c r="D32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5">
-      <c r="D33" t="s">
-        <v>68</v>
-      </c>
       <c r="E33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C34" t="s">
         <v>20</v>
       </c>
       <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D35" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5">
-      <c r="D35" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5">
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
       <c r="E36" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D38" t="s">
         <v>74</v>
       </c>
-      <c r="D37" t="s">
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="3:5">
-      <c r="D38" t="s">
+      <c r="D39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="3:5">
-      <c r="C39" t="s">
+      <c r="D41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C46" t="s">
         <v>77</v>
       </c>
-      <c r="D39" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5">
-      <c r="D40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5">
-      <c r="C41" t="s">
+      <c r="D46" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5">
-      <c r="C46" t="s">
+    </row>
+    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="D47" t="s">
         <v>79</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+      <c r="D51" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5">
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12">
-      <c r="D49" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12">
-      <c r="C50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12">
-      <c r="D51" t="s">
-        <v>82</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -10858,27 +11756,27 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H51" t="s">
         <v>7</v>
       </c>
       <c r="I51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s">
         <v>7</v>
       </c>
       <c r="K51" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E52" t="s">
         <v>7</v>
@@ -10890,30 +11788,30 @@
         <v>7</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K52" t="s">
         <v>7</v>
       </c>
       <c r="L52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E53" t="s">
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
         <v>7</v>
@@ -10925,51 +11823,52 @@
         <v>7</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="3:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="3:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:12">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
       <c r="D60" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10978,61 +11877,61 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3">
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="C5" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -11046,160 +11945,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
   <dimension ref="I9:CK87"/>
   <sheetViews>
-    <sheetView topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="CH88" sqref="CG88:CH88"/>
+    <sheetView topLeftCell="AE60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV104" sqref="AV104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="9" spans="9:40">
+    <row r="9" spans="9:40" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="40:40" x14ac:dyDescent="0.45">
+      <c r="AN22" t="s">
         <v>55</v>
       </c>
-      <c r="AN9" t="s">
+    </row>
+    <row r="43" spans="40:54" x14ac:dyDescent="0.45">
+      <c r="AN43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="40:40">
-      <c r="AN22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="40:54">
-      <c r="AN43" t="s">
-        <v>58</v>
-      </c>
       <c r="BB43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="44:89" x14ac:dyDescent="0.45">
+      <c r="AR68" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>52</v>
+      </c>
+      <c r="BU68" t="s">
+        <v>114</v>
+      </c>
+      <c r="CK68" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="59:89" x14ac:dyDescent="0.45">
+      <c r="BG87" t="s">
+        <v>116</v>
+      </c>
+      <c r="BU87" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="68" spans="44:89">
-      <c r="AR68" t="s">
-        <v>116</v>
-      </c>
-      <c r="BG68" t="s">
-        <v>54</v>
-      </c>
-      <c r="BU68" t="s">
+      <c r="CK87" t="s">
         <v>118</v>
       </c>
-      <c r="CK68" t="s">
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8349F1-91D1-B541-94C1-AFDAE36E5CA8}">
+  <dimension ref="B6:D54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="87" spans="59:89">
-      <c r="BG87" t="s">
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
         <v>120</v>
       </c>
-      <c r="BU87" t="s">
-        <v>121</v>
-      </c>
-      <c r="CK87" t="s">
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
         <v>122</v>
       </c>
     </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233E645-3E10-434E-93D1-19E99EA35456}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8349F1-91D1-B541-94C1-AFDAE36E5CA8}">
-  <dimension ref="B6:C24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="6" spans="2:3">
-      <c r="B6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="C7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="C8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="C9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31554E64-214E-4ECA-984B-E43B8CE3C6EE}">
   <dimension ref="C2:E18"/>
   <sheetViews>
@@ -11207,440 +12230,82 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:5">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:5">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:5">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>21</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982680-1EDB-42D0-BB04-A919B5CCB3A2}">
-  <dimension ref="A5:H36"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="B17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="B19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="B20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="B21" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="B31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="B32" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11657,7 +12322,7 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11667,18 +12332,598 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD3D09-1400-45E4-9C4F-6622B2B3E86B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982680-1EDB-42D0-BB04-A919B5CCB3A2}">
+  <dimension ref="A5:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B14" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B33" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B40" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B41" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B50" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E47C4B-6CA5-4F7A-892A-859C69A8E963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD791C46-1A4A-45B8-A214-996DB3B31255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37755" yWindow="8460" windowWidth="19650" windowHeight="9450" tabRatio="712" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="69885" yWindow="1080" windowWidth="28800" windowHeight="15375" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
@@ -12009,8 +12009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8349F1-91D1-B541-94C1-AFDAE36E5CA8}">
   <dimension ref="B6:D54"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12070,7 +12070,7 @@
         <v>128</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
@@ -12210,7 +12210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233E645-3E10-434E-93D1-19E99EA35456}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD791C46-1A4A-45B8-A214-996DB3B31255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{127A4DC9-88A1-471C-AC72-54096EB02724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69885" yWindow="1080" windowWidth="28800" windowHeight="15375" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="712" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
@@ -18,14 +18,15 @@
     <sheet name="バージョン情報" sheetId="9" r:id="rId3"/>
     <sheet name="画面" sheetId="13" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId6"/>
-    <sheet name="機能一覧" sheetId="5" state="hidden" r:id="rId7"/>
-    <sheet name="ER図" sheetId="7" r:id="rId8"/>
-    <sheet name="DB設計" sheetId="8" r:id="rId9"/>
-    <sheet name="追加機能" sheetId="15" r:id="rId10"/>
+    <sheet name="機能一覧" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="ER図" sheetId="7" r:id="rId7"/>
+    <sheet name="DB設計" sheetId="8" r:id="rId8"/>
+    <sheet name="追加機能" sheetId="15" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId10"/>
     <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="179">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -714,10 +715,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>purchaseHistroiesテーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/cart</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -842,10 +839,6 @@
   </si>
   <si>
     <t>order_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>order_detail_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1083,6 +1076,46 @@
   </si>
   <si>
     <t>updateQuantityById</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordersテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>order_detailsテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/{id}/order</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/{id}/order/{id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ordered_on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OnDelete(SET NULL)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名は変更する可能性がある為</t>
+    <rPh sb="0" eb="3">
+      <t>ショウヒンメイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カノウセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タメ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1227,6 +1260,64 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>238398</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>82458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>291465</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>203834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA1947D-55F9-449F-B6F0-DC618E8D744C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9991998" y="24085458"/>
+          <a:ext cx="5234667" cy="3778976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
       <xdr:row>9</xdr:row>
@@ -2732,15 +2823,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:colOff>212089</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>207010</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2755,8 +2846,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4787900" y="2374900"/>
-          <a:ext cx="673100" cy="342900"/>
+          <a:off x="4784089" y="2378710"/>
+          <a:ext cx="749935" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2783,7 +2874,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>履歴</a:t>
+            <a:t>注文履歴</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -6102,15 +6193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>50801</xdr:colOff>
+      <xdr:colOff>54611</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>53974</xdr:rowOff>
+      <xdr:rowOff>57784</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
       <xdr:colOff>191771</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>33019</xdr:rowOff>
+      <xdr:rowOff>31114</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6128,8 +6219,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="16286163" y="18870612"/>
-          <a:ext cx="3636645" cy="750570"/>
+          <a:off x="16290926" y="18873469"/>
+          <a:ext cx="3630930" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector4">
           <a:avLst>
@@ -7332,6 +7423,675 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91713</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>95793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>217169</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1268D5B3-4784-4882-854F-42CC1923435A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139713" y="24098793"/>
+          <a:ext cx="5242287" cy="3778976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57423</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>208189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A653D61B-5002-4264-9299-8F913752B16D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3410223" y="24439789"/>
+          <a:ext cx="4266927" cy="458561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注文日：日付　合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>105048</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ED69A3B-BE8D-4CA3-845E-F1C8BB778EA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10468248" y="24468364"/>
+          <a:ext cx="4266927" cy="2487386"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注文日：日付　合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品１　個数　金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品２　個数　金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>お届け先</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72663</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>21499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{128FCFD8-DD78-4420-BFEF-79656DAD266F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3425463" y="25167499"/>
+          <a:ext cx="4266927" cy="450941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注文日：日付　合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>72663</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>21499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="正方形/長方形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A3EB138-B35E-471E-9066-0C4D0726C61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3425463" y="25167499"/>
+          <a:ext cx="4266927" cy="450941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注文日：日付　合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>82188</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>81915</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4392D79F-F210-4697-9DF1-61543A4D16F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3434988" y="25839964"/>
+          <a:ext cx="4266927" cy="458561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>注文日：日付　合計金額</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>208870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>240303</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>146004</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="カギ線コネクタ 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B5FBAC-33D4-4A13-9AA0-EC1CC15AABF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="3"/>
+          <a:endCxn id="45" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7673340" y="24669070"/>
+          <a:ext cx="2320563" cy="1308734"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>102235</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>73660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>264160</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{180A4B7D-72DE-45A0-ADE9-E3A7292B56EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8636635" y="25219660"/>
+          <a:ext cx="466725" cy="341630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95524</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>210820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>152671</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CBBF9FC-2BA2-4091-9B71-D53D9D80BB97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="2"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-7478711" y="13347655"/>
+          <a:ext cx="23259051" cy="2014581"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 45938"/>
+            <a:gd name="adj2" fmla="val 111347"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3D8E1B-2788-4824-A1B4-D9B58DDCCC43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2647950" y="22840950"/>
+          <a:ext cx="476250" cy="334010"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GET</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7339,557 +8099,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60359E9C-B385-7522-54EC-4EE6B5FAD9C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="2286000"/>
-          <a:ext cx="1428750" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C685100-048F-425C-90C1-B5B6A12DC767}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2286000"/>
-          <a:ext cx="1428750" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>名前</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78231F54-C6DE-4A67-B47B-744D190A7E11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2743200"/>
-          <a:ext cx="1428750" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>単価</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E331C0-B99F-4330-B7E5-5529650E73E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3429000"/>
-          <a:ext cx="571500" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554FAA8A-3BFA-480B-B968-2228426435B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="3429000"/>
-          <a:ext cx="571500" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E951E-8BBE-4866-A324-F9A5A0848101}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="3886200"/>
-          <a:ext cx="1143000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3838DAC7-0380-4E1F-B8AA-536A79A81E31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="3886200"/>
-          <a:ext cx="1143000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B118B59E-AEBB-4701-BC40-FD59E5414BC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428750" y="2057400"/>
-          <a:ext cx="3714750" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65272E9-F09D-44CC-ABE1-DB6C636B8AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6305550" y="2066925"/>
-          <a:ext cx="1428750" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>243952</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -8083,12 +8292,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>board</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブル</a:t>
-          </a:r>
+            <a:t>orders</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8097,13 +8303,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8120,8 +8326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="975360" y="7086601"/>
-          <a:ext cx="1463039" cy="1371599"/>
+          <a:off x="3731559" y="6947648"/>
+          <a:ext cx="1479176" cy="1344705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8148,12 +8354,9 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>reply</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>テーブル</a:t>
-          </a:r>
+            <a:t>order_details</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8282,16 +8485,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31713</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>224116</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8304,18 +8507,16 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="1"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:endCxn id="3" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000" flipV="1">
-          <a:off x="975361" y="5715000"/>
-          <a:ext cx="1463040" cy="2057401"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 115741"/>
-          </a:avLst>
+          <a:off x="4469242" y="5602940"/>
+          <a:ext cx="707876" cy="1344707"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -8336,66 +8537,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>175149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>163607</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>103431</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>93793</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="楕円 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9543267" y="5542431"/>
-          <a:ext cx="174811" cy="154303"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -8458,248 +8599,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="コネクタ: カギ線 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2095499" y="6012182"/>
-          <a:ext cx="685801" cy="1463040"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>116541</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>143435</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="二等辺三角形 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3042621" y="6580094"/>
-          <a:ext cx="270734" cy="183777"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>143437</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71719</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="楕円 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="631117" y="7467601"/>
-          <a:ext cx="172122" cy="156881"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>157221</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>77883</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>71382</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="楕円 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2129456" y="5518113"/>
-          <a:ext cx="167192" cy="156210"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>100628</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>223893</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>9301</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>182654</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>18602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>141866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8714,13 +8623,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8975687" y="3361540"/>
-          <a:ext cx="2867026" cy="638959"/>
+          <a:off x="7825066" y="9431543"/>
+          <a:ext cx="3268757" cy="1467970"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -27898"/>
-            <a:gd name="adj2" fmla="val 274661"/>
+            <a:gd name="adj1" fmla="val -38021"/>
+            <a:gd name="adj2" fmla="val -150915"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -8769,7 +8678,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・ユーザ</a:t>
+            <a:t>・注文詳細に対して商品は１以上（商品のない注文は存在しない）ユーザ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -8833,7 +8742,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・１つの投稿にユーザは１つ</a:t>
+            <a:t>・１つの商品に対して注文詳細は１以上存在する。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -8922,7 +8831,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・返信の無い投稿は存在する。</a:t>
+            <a:t>・注文詳細に対して注文は１ある。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -8962,7 +8871,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・１つの返信に対する元投稿は１つ。</a:t>
+            <a:t>・１つの注文に対する注文詳細は１以上。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -8972,16 +8881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>209102</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171897</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>93233</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>13110</xdr:rowOff>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>151391</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8996,13 +8905,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="455631" y="7791897"/>
-          <a:ext cx="2842484" cy="737684"/>
+          <a:off x="493059" y="6577852"/>
+          <a:ext cx="2846294" cy="745304"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 47494"/>
-            <a:gd name="adj2" fmla="val -95787"/>
+            <a:gd name="adj1" fmla="val 72297"/>
+            <a:gd name="adj2" fmla="val -34142"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -9051,7 +8960,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・元投稿が削除されても返信は残る。</a:t>
+            <a:t>・注文に対して注文詳細は１以上ある。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -9091,7 +9000,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・１つの投稿につき複数の返信がある。</a:t>
+            <a:t>・１つの注文詳細に対して注文は１。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -9101,16 +9010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>53451</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>64433</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>93457</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>25324</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98274</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>140186</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12213</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9125,13 +9034,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4984039" y="3426198"/>
-          <a:ext cx="2751830" cy="633244"/>
+          <a:off x="3549686" y="8938708"/>
+          <a:ext cx="2753735" cy="1158799"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
             <a:gd name="adj1" fmla="val 20732"/>
-            <a:gd name="adj2" fmla="val 243897"/>
+            <a:gd name="adj2" fmla="val -135177"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -9268,7 +9177,7 @@
           </a:pPr>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>・ユーザは何度でも投稿できる。</a:t>
+            <a:t>・商品に対して注文詳細は０。（１度も注文されていない商品は存在する）</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -9300,19 +9209,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>一度も投稿してないユーザは存在する</a:t>
+            <a:t>・１つの注文詳細に対する商品は１。</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -9557,6 +9454,1436 @@
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>216162</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>223447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>140634</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>149822</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F7C9F1D-13A2-434B-960F-0C66896D4BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4407162" y="6498741"/>
+          <a:ext cx="171001" cy="150493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>204957</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>129429</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>116204</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01103B60-1949-41FB-AC64-1299C678CEC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889016" y="5568652"/>
+          <a:ext cx="171001" cy="150493"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19611</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>29136</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F70689E5-F5DB-41C5-8E6A-B2F4E0C67D61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8401611" y="6931958"/>
+          <a:ext cx="1488701" cy="1344706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>products</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>40342</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>208429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>19611</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1233</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DC10569-E23C-45E1-8CC4-236C33149F7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="22" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5217460" y="7604311"/>
+          <a:ext cx="3184151" cy="16922"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>211681</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>153634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>143772</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>78104</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B7B7A3C-2231-42E6-AAEA-F958A8E68FD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8100622" y="7549516"/>
+          <a:ext cx="178621" cy="148588"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>151503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>137385</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9855366D-3695-4619-9175-6B412EF2EFCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5390031" y="7547385"/>
+          <a:ext cx="171001" cy="158115"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>57037</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>98948</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="吹き出し: 四角形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4F893F-9A1B-4AFF-BA67-1249C2AAC3A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5727213" y="3037018"/>
+          <a:ext cx="2753735" cy="1162609"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -5719"/>
+            <a:gd name="adj2" fmla="val 138558"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・ユーザに対して注文は０。（１度も注文されていないユーザは存在する）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・１つの注文に対するユーザは１。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>29133</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>86286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="吹き出し: 四角形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{074D187E-D909-4172-8DE5-4169B74DB9F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8904192" y="2999815"/>
+          <a:ext cx="2746115" cy="1151179"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26195"/>
+            <a:gd name="adj2" fmla="val 138356"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>・注文に対してユーザは１以上。（ユーザのない注文は存在する）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>・１つの注文に対するユーザは１。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>15689</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282619B3-3D22-4834-8BB7-1964A69FBB90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9630336" y="5516207"/>
+          <a:ext cx="167191" cy="158115"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60359E9C-B385-7522-54EC-4EE6B5FAD9C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1714500" y="2286000"/>
+          <a:ext cx="1428750" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C685100-048F-425C-90C1-B5B6A12DC767}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2286000"/>
+          <a:ext cx="1428750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78231F54-C6DE-4A67-B47B-744D190A7E11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="2743200"/>
+          <a:ext cx="1428750" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>単価</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E331C0-B99F-4330-B7E5-5529650E73E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="3429000"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カート</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554FAA8A-3BFA-480B-B968-2228426435B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="3429000"/>
+          <a:ext cx="571500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E951E-8BBE-4866-A324-F9A5A0848101}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="3886200"/>
+          <a:ext cx="1143000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3838DAC7-0380-4E1F-B8AA-536A79A81E31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3714750" y="3886200"/>
+          <a:ext cx="1143000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B118B59E-AEBB-4701-BC40-FD59E5414BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1428750" y="2057400"/>
+          <a:ext cx="3714750" cy="2286000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65272E9-F09D-44CC-ABE1-DB6C636B8AB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6305550" y="2066925"/>
+          <a:ext cx="1428750" cy="1371600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -11358,54 +12685,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB3341A-341D-4B51-B88C-4BE59AC260A0}">
-  <dimension ref="B5:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233E645-3E10-434E-93D1-19E99EA35456}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="U49" sqref="U49:U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11907,7 +13198,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.45">
@@ -11943,10 +13234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
-  <dimension ref="I9:CK87"/>
+  <dimension ref="I9:CK105"/>
   <sheetViews>
-    <sheetView topLeftCell="AE60" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AV104" sqref="AV104"/>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y126" sqref="Y126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -11969,32 +13260,40 @@
         <v>56</v>
       </c>
       <c r="BB43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="44:89" x14ac:dyDescent="0.45">
       <c r="AR68" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BG68" t="s">
         <v>52</v>
       </c>
       <c r="BU68" t="s">
+        <v>113</v>
+      </c>
+      <c r="CK68" t="s">
         <v>114</v>
-      </c>
-      <c r="CK68" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="87" spans="59:89" x14ac:dyDescent="0.45">
       <c r="BG87" t="s">
+        <v>115</v>
+      </c>
+      <c r="BU87" t="s">
         <v>116</v>
       </c>
-      <c r="BU87" t="s">
+      <c r="CK87" t="s">
         <v>117</v>
       </c>
-      <c r="CK87" t="s">
-        <v>118</v>
+    </row>
+    <row r="105" spans="11:34" x14ac:dyDescent="0.45">
+      <c r="K105" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -12009,194 +13308,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8349F1-91D1-B541-94C1-AFDAE36E5CA8}">
   <dimension ref="B6:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" t="s">
         <v>124</v>
-      </c>
-      <c r="D10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
         <v>130</v>
-      </c>
-      <c r="C22" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C51" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -12207,22 +13506,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233E645-3E10-434E-93D1-19E99EA35456}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31554E64-214E-4ECA-984B-E43B8CE3C6EE}">
   <dimension ref="C2:E18"/>
   <sheetViews>
@@ -12314,12 +13597,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFEF3A2-1295-4B0C-8607-9CF4433E5631}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -12331,11 +13614,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982680-1EDB-42D0-BB04-A919B5CCB3A2}">
-  <dimension ref="A5:H51"/>
+  <dimension ref="A5:H52"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -12446,7 +13729,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -12461,7 +13744,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -12476,7 +13759,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
@@ -12491,7 +13774,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -12506,7 +13789,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>5</v>
@@ -12521,7 +13804,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B16" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>5</v>
@@ -12628,7 +13911,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
@@ -12656,7 +13939,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>4</v>
@@ -12675,10 +13958,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -12701,7 +13984,9 @@
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
@@ -12727,7 +14012,9 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
@@ -12735,7 +14022,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>5</v>
@@ -12750,7 +14037,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>5</v>
@@ -12765,7 +14052,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>5</v>
@@ -12780,7 +14067,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>5</v>
@@ -12795,7 +14082,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>5</v>
@@ -12810,7 +14097,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
@@ -12838,7 +14125,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>4</v>
@@ -12846,9 +14133,7 @@
       <c r="D47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
         <v>7</v>
@@ -12859,7 +14144,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>4</v>
@@ -12867,12 +14152,14 @@
       <c r="D48" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F48" s="1"/>
-      <c r="G48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
@@ -12882,19 +14169,21 @@
         <v>4</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="F49" s="1"/>
-      <c r="G49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -12903,12 +14192,12 @@
         <v>7</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>107</v>
@@ -12919,7 +14208,76 @@
       <c r="G51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB3341A-341D-4B51-B88C-4BE59AC260A0}">
+  <dimension ref="B5:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
+        <v>156</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\ECsite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/ECsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{127A4DC9-88A1-471C-AC72-54096EB02724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7F18C-142C-244D-97EE-919362D98C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="712" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1123,7 +1122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1268,8 +1267,8 @@
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>291465</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>203834</xdr:rowOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1285,7 +1284,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9991998" y="24085458"/>
-          <a:ext cx="5234667" cy="3778976"/>
+          <a:ext cx="5234667" cy="6216742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7553,8 +7552,8 @@
     <xdr:to>
       <xdr:col>48</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7570,7 +7569,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10468248" y="24468364"/>
-          <a:ext cx="4266927" cy="2487386"/>
+          <a:ext cx="4266927" cy="3662136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7611,6 +7610,14 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>商品１　個数　金額</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>（現在の商品名、金額）</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
@@ -7659,6 +7666,46 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>住所</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>現在の注文者情報</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>名前</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メール</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>住所</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7854,15 +7901,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>107</xdr:row>
       <xdr:rowOff>208870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>240303</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>146004</xdr:rowOff>
+      <xdr:colOff>238398</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>219029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -7880,8 +7927,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7673340" y="24669070"/>
-          <a:ext cx="2320563" cy="1308734"/>
+          <a:off x="7677150" y="24669070"/>
+          <a:ext cx="2314848" cy="2524759"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -12544,14 +12591,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
@@ -12559,7 +12606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
@@ -12567,10 +12614,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2">
       <c r="A9" s="5"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
@@ -12578,10 +12625,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2">
       <c r="A11" s="5"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
         <v>40</v>
       </c>
@@ -12589,10 +12636,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
@@ -12600,10 +12647,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2">
       <c r="A15" s="5"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
         <v>42</v>
       </c>
@@ -12611,10 +12658,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5">
       <c r="A17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
@@ -12622,10 +12669,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5">
       <c r="A19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
         <v>44</v>
       </c>
@@ -12633,10 +12680,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
         <v>45</v>
       </c>
@@ -12644,7 +12691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -12652,12 +12699,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5">
       <c r="B26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5">
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -12665,7 +12712,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5">
       <c r="C28" t="s">
         <v>60</v>
       </c>
@@ -12692,7 +12739,7 @@
       <selection activeCell="U49" sqref="U49:U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12708,7 +12755,7 @@
       <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12725,14 +12772,14 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:6">
       <c r="C6" t="s">
         <v>63</v>
       </c>
@@ -12743,7 +12790,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:6">
       <c r="D7" t="s">
         <v>65</v>
       </c>
@@ -12751,7 +12798,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:6">
       <c r="D8" t="s">
         <v>66</v>
       </c>
@@ -12759,7 +12806,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:6">
       <c r="C9" t="s">
         <v>67</v>
       </c>
@@ -12773,7 +12820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:6">
       <c r="E10" t="s">
         <v>65</v>
       </c>
@@ -12781,7 +12828,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:6">
       <c r="E11" t="s">
         <v>66</v>
       </c>
@@ -12789,7 +12836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:6">
       <c r="D12" t="s">
         <v>88</v>
       </c>
@@ -12797,17 +12844,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:6">
       <c r="E13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:6">
       <c r="E14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:6">
       <c r="D15" t="s">
         <v>89</v>
       </c>
@@ -12815,17 +12862,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:6">
       <c r="E16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:6">
       <c r="E17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6">
       <c r="E18" t="s">
         <v>93</v>
       </c>
@@ -12833,7 +12880,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6">
       <c r="C19" t="s">
         <v>19</v>
       </c>
@@ -12844,17 +12891,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:6">
       <c r="E20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:6">
       <c r="E21" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:6">
       <c r="D22" t="s">
         <v>65</v>
       </c>
@@ -12862,17 +12909,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:6">
       <c r="E23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:6">
       <c r="E24" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:6">
       <c r="D25" t="s">
         <v>66</v>
       </c>
@@ -12880,17 +12927,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:6">
       <c r="E26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:6">
       <c r="E27" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>70</v>
       </c>
@@ -12901,7 +12948,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:6">
       <c r="D29" t="s">
         <v>65</v>
       </c>
@@ -12909,7 +12956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:6">
       <c r="D30" t="s">
         <v>66</v>
       </c>
@@ -12917,7 +12964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:6">
       <c r="C31" t="s">
         <v>71</v>
       </c>
@@ -12928,7 +12975,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:6">
       <c r="D32" t="s">
         <v>65</v>
       </c>
@@ -12936,7 +12983,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:5">
       <c r="D33" t="s">
         <v>66</v>
       </c>
@@ -12944,7 +12991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:5">
       <c r="C34" t="s">
         <v>20</v>
       </c>
@@ -12955,7 +13002,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:5">
       <c r="D35" t="s">
         <v>65</v>
       </c>
@@ -12963,7 +13010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:5">
       <c r="D36" t="s">
         <v>66</v>
       </c>
@@ -12971,7 +13018,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:5">
       <c r="C37" t="s">
         <v>72</v>
       </c>
@@ -12979,12 +13026,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:5">
       <c r="D38" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:5">
       <c r="C39" t="s">
         <v>75</v>
       </c>
@@ -12992,12 +13039,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:5">
       <c r="D40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:5">
       <c r="C41" t="s">
         <v>76</v>
       </c>
@@ -13005,7 +13052,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:5">
       <c r="C46" t="s">
         <v>77</v>
       </c>
@@ -13013,12 +13060,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:5">
       <c r="D47" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:5">
       <c r="C48" t="s">
         <v>59</v>
       </c>
@@ -13026,17 +13073,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:12">
       <c r="D49" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:12">
       <c r="C50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:12">
       <c r="D51" t="s">
         <v>80</v>
       </c>
@@ -13065,7 +13112,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:12">
       <c r="D52" t="s">
         <v>81</v>
       </c>
@@ -13094,7 +13141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:12">
       <c r="D53" t="s">
         <v>82</v>
       </c>
@@ -13123,7 +13170,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:12">
       <c r="D54" t="s">
         <v>65</v>
       </c>
@@ -13131,27 +13178,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:12">
       <c r="E55" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:12">
       <c r="E56" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:12">
       <c r="E57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:12">
       <c r="E58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:12">
       <c r="D60" t="s">
         <v>84</v>
       </c>
@@ -13171,13 +13218,13 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:3">
       <c r="B3" s="3" t="s">
         <v>30</v>
       </c>
@@ -13185,7 +13232,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:3">
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
@@ -13193,7 +13240,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
@@ -13201,7 +13248,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3">
       <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
@@ -13209,7 +13256,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3">
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
@@ -13217,7 +13264,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:3">
       <c r="B8" s="8" t="s">
         <v>33</v>
       </c>
@@ -13236,13 +13283,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
   <dimension ref="I9:CK105"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y126" sqref="Y126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
   <sheetData>
-    <row r="9" spans="9:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="9:40">
       <c r="I9" t="s">
         <v>53</v>
       </c>
@@ -13250,12 +13297,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="40:40" x14ac:dyDescent="0.45">
+    <row r="22" spans="40:40">
       <c r="AN22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="40:54" x14ac:dyDescent="0.45">
+    <row r="43" spans="40:54">
       <c r="AN43" t="s">
         <v>56</v>
       </c>
@@ -13263,7 +13310,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="68" spans="44:89" x14ac:dyDescent="0.45">
+    <row r="68" spans="44:89">
       <c r="AR68" t="s">
         <v>111</v>
       </c>
@@ -13277,7 +13324,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="59:89" x14ac:dyDescent="0.45">
+    <row r="87" spans="59:89">
       <c r="BG87" t="s">
         <v>115</v>
       </c>
@@ -13288,7 +13335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="105" spans="11:34" x14ac:dyDescent="0.45">
+    <row r="105" spans="11:34">
       <c r="K105" t="s">
         <v>174</v>
       </c>
@@ -13312,9 +13359,9 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="18"/>
   <sheetData>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4">
       <c r="B6" t="s">
         <v>158</v>
       </c>
@@ -13325,22 +13372,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4">
       <c r="D7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:4">
       <c r="D8" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:4">
       <c r="D9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4">
       <c r="C10" t="s">
         <v>123</v>
       </c>
@@ -13348,7 +13395,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:4">
       <c r="C11" t="s">
         <v>125</v>
       </c>
@@ -13356,7 +13403,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4">
       <c r="C12" t="s">
         <v>126</v>
       </c>
@@ -13364,7 +13411,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4">
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -13372,12 +13419,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:3">
       <c r="B22" t="s">
         <v>129</v>
       </c>
@@ -13385,52 +13432,52 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:3">
       <c r="C23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:3">
       <c r="C24" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:3">
       <c r="C25" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:3">
       <c r="C26" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:3">
       <c r="C27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:3">
       <c r="C28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:3">
       <c r="C29" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:3">
       <c r="C30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:3">
       <c r="C33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
         <v>159</v>
       </c>
@@ -13438,62 +13485,62 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:3">
       <c r="C39" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:3">
       <c r="C40" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:3">
       <c r="C41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:3">
       <c r="C42" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:3">
       <c r="C43" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:3">
       <c r="C47" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:3">
       <c r="C48" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:3">
       <c r="C49" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:3">
       <c r="C51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:3">
       <c r="C52" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:3">
       <c r="C54" t="s">
         <v>171</v>
       </c>
@@ -13513,13 +13560,13 @@
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:5">
       <c r="C2" t="s">
         <v>50</v>
       </c>
@@ -13527,37 +13574,37 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:5">
       <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:5">
       <c r="D6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:5">
       <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:5">
       <c r="E8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:5">
       <c r="D9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:5">
       <c r="E10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:5">
       <c r="C13" t="s">
         <v>51</v>
       </c>
@@ -13565,27 +13612,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:5">
       <c r="E14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:5">
       <c r="E15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:5">
       <c r="E16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5">
       <c r="D17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5">
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -13605,7 +13652,7 @@
       <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13618,27 +13665,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982680-1EDB-42D0-BB04-A919B5CCB3A2}">
   <dimension ref="A5:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8">
       <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
@@ -13661,7 +13708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="18.5" customHeight="1">
       <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
@@ -13680,7 +13727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8">
       <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
@@ -13695,7 +13742,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8">
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
@@ -13712,7 +13759,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8">
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -13727,7 +13774,7 @@
       </c>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8">
       <c r="B11" s="1" t="s">
         <v>143</v>
       </c>
@@ -13742,7 +13789,7 @@
       </c>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8">
       <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
@@ -13757,7 +13804,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8">
       <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
@@ -13772,7 +13819,7 @@
       </c>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8">
       <c r="B14" s="1" t="s">
         <v>146</v>
       </c>
@@ -13787,7 +13834,7 @@
       </c>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8">
       <c r="B15" s="1" t="s">
         <v>147</v>
       </c>
@@ -13802,7 +13849,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8">
       <c r="B16" s="1" t="s">
         <v>148</v>
       </c>
@@ -13817,12 +13864,12 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8">
       <c r="B19" s="2" t="s">
         <v>0</v>
       </c>
@@ -13845,7 +13892,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8">
       <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
@@ -13864,7 +13911,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8">
       <c r="B21" s="1" t="s">
         <v>48</v>
       </c>
@@ -13879,7 +13926,7 @@
       </c>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8">
       <c r="B22" s="1" t="s">
         <v>105</v>
       </c>
@@ -13894,7 +13941,7 @@
       </c>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8">
       <c r="B23" s="1" t="s">
         <v>106</v>
       </c>
@@ -13909,12 +13956,12 @@
       </c>
       <c r="H23" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8">
       <c r="B31" s="2" t="s">
         <v>0</v>
       </c>
@@ -13937,7 +13984,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
@@ -13956,7 +14003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8">
       <c r="B33" s="1" t="s">
         <v>176</v>
       </c>
@@ -13971,7 +14018,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8">
       <c r="B34" s="1" t="s">
         <v>110</v>
       </c>
@@ -13988,7 +14035,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8">
       <c r="B35" s="1" t="s">
         <v>48</v>
       </c>
@@ -14003,7 +14050,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8">
       <c r="B36" s="1" t="s">
         <v>47</v>
       </c>
@@ -14020,7 +14067,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8">
       <c r="B37" s="1" t="s">
         <v>143</v>
       </c>
@@ -14035,7 +14082,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8">
       <c r="B38" s="1" t="s">
         <v>144</v>
       </c>
@@ -14050,7 +14097,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8">
       <c r="B39" s="1" t="s">
         <v>145</v>
       </c>
@@ -14065,7 +14112,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8">
       <c r="B40" s="1" t="s">
         <v>146</v>
       </c>
@@ -14080,7 +14127,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8">
       <c r="B41" s="1" t="s">
         <v>147</v>
       </c>
@@ -14095,12 +14142,12 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8">
       <c r="B46" s="2" t="s">
         <v>0</v>
       </c>
@@ -14123,7 +14170,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8">
       <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
@@ -14142,7 +14189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8">
       <c r="B48" s="1" t="s">
         <v>141</v>
       </c>
@@ -14161,7 +14208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:8">
       <c r="B49" s="1" t="s">
         <v>109</v>
       </c>
@@ -14178,7 +14225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:8">
       <c r="B50" s="1" t="s">
         <v>48</v>
       </c>
@@ -14195,7 +14242,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:8">
       <c r="B51" s="1" t="s">
         <v>106</v>
       </c>
@@ -14212,7 +14259,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
         <v>142</v>
       </c>
@@ -14242,39 +14289,39 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:2">
       <c r="B9" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:2">
       <c r="B14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:2">
       <c r="B15" t="s">
         <v>156</v>
       </c>

--- a/掲示板設計書.xlsx
+++ b/掲示板設計書.xlsx
@@ -8,22 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/ECsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7F18C-142C-244D-97EE-919362D98C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD2F412-410D-1448-9633-1C7531A17DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23240" windowHeight="12560" tabRatio="712" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30780" windowHeight="17980" tabRatio="712" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インストール方法" sheetId="11" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="12" state="hidden" r:id="rId2"/>
     <sheet name="バージョン情報" sheetId="9" r:id="rId3"/>
     <sheet name="画面" sheetId="13" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="14" r:id="rId5"/>
+    <sheet name="ソース構成" sheetId="14" r:id="rId5"/>
     <sheet name="機能一覧" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="ER図" sheetId="7" r:id="rId7"/>
-    <sheet name="DB設計" sheetId="8" r:id="rId8"/>
+    <sheet name="DB設計" sheetId="8" r:id="rId7"/>
+    <sheet name="ER図" sheetId="7" r:id="rId8"/>
     <sheet name="追加機能" sheetId="15" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId10"/>
-    <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId11"/>
+    <sheet name="フロー図" sheetId="4" state="hidden" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -10397,557 +10396,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60359E9C-B385-7522-54EC-4EE6B5FAD9C3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1714500" y="2286000"/>
-          <a:ext cx="1428750" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C685100-048F-425C-90C1-B5B6A12DC767}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2286000"/>
-          <a:ext cx="1428750" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>名前</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78231F54-C6DE-4A67-B47B-744D190A7E11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="2743200"/>
-          <a:ext cx="1428750" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>単価</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11E331C0-B99F-4330-B7E5-5529650E73E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3429000"/>
-          <a:ext cx="571500" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>カート</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{554FAA8A-3BFA-480B-B968-2228426435B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4286250" y="3429000"/>
-          <a:ext cx="571500" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>詳細</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65E951E-8BBE-4866-A324-F9A5A0848101}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2000250" y="3886200"/>
-          <a:ext cx="1143000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>編集</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3838DAC7-0380-4E1F-B8AA-536A79A81E31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3714750" y="3886200"/>
-          <a:ext cx="1143000" cy="228600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>削除</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B118B59E-AEBB-4701-BC40-FD59E5414BC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1428750" y="2057400"/>
-          <a:ext cx="3714750" cy="2286000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65272E9-F09D-44CC-ABE1-DB6C636B8AB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6305550" y="2066925"/>
-          <a:ext cx="1428750" cy="1371600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12732,22 +12180,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2233E645-3E10-434E-93D1-19E99EA35456}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="U49" sqref="U49:U51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.6640625" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDD3D09-1400-45E4-9C4F-6622B2B3E86B}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13283,7 +12715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB16CEA0-2F5A-7948-976E-E507072E0E45}">
   <dimension ref="I9:CK105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B96" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Y126" sqref="Y126"/>
     </sheetView>
   </sheetViews>
@@ -13355,7 +12787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8349F1-91D1-B541-94C1-AFDAE36E5CA8}">
   <dimension ref="B6:D54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -13645,23 +13077,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFEF3A2-1295-4B0C-8607-9CF4433E5631}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V31" sqref="V31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3982680-1EDB-42D0-BB04-A919B5CCB3A2}">
   <dimension ref="A5:H52"/>
   <sheetViews>
@@ -14281,6 +13696,23 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AFEF3A2-1295-4B0C-8607-9CF4433E5631}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.1640625" defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB3341A-341D-4B51-B88C-4BE59AC260A0}">
   <dimension ref="B5:B15"/>
